--- a/biology/Zoologie/Geitoneura_minyas/Geitoneura_minyas.xlsx
+++ b/biology/Zoologie/Geitoneura_minyas/Geitoneura_minyas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geitoneura minyas est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Satyrinae et du genre Geitoneura, endémique de l'Australie.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Geitoneura minyas a été initialement décrite en 1914 par les entomologistes australiens Gustavus Athol Waterhouse (d) (1877-1950) et George Lyell (d) (1866-1951) sous le protonyme de Xenica minyas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Geitoneura minyas a été initialement décrite en 1914 par les entomologistes australiens Gustavus Athol Waterhouse (d) (1877-1950) et George Lyell (d) (1866-1951) sous le protonyme de Xenica minyas.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geitoneura minyas se nomme Western Xenica en anglais[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geitoneura minyas se nomme Western Xenica en anglais.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (7 août 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (7 août 2021) :
 sous-espèce Geitoneura minyas minyas (Waterhouse &amp; Lyell, 1914)
 sous-espèce Geitoneura minyas mjobergi (Aurivillius, 1920)</t>
         </is>
@@ -605,12 +623,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon de taille moyenne, de couleur orange séparée en damiers par des veines et des lignes marron avec un ocelle noir à l'apex des antérieures et un aux postérieures.
-Le revers des antérieures est semblable, les postérieures sont gris marbrées de marron[3].
-Chenille
-La chenille est de couleur verte[4].
+Le revers des antérieures est semblable, les postérieures sont gris marbrées de marron.
 </t>
         </is>
       </c>
@@ -636,13 +654,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont diverses, des poacées, en particulier des Ehrharta dont Ehrharta calycina[4],[3].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est de couleur verte.
 </t>
         </is>
       </c>
@@ -668,17 +691,126 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont diverses, des poacées, en particulier des Ehrharta dont Ehrharta calycina,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Geitoneura_minyas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geitoneura_minyas</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Geitoneura mynias est présent uniquement dans l'Ouest de l'Australie[2].
-Période de vol et hivernation
-Il vole en une génération de septembre à décembre[5].
-Biotope
-Il réside en forêt[5].
-Protection</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geitoneura mynias est présent uniquement dans l'Ouest de l'Australie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Geitoneura_minyas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geitoneura_minyas</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération de septembre à décembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Geitoneura_minyas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geitoneura_minyas</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en forêt.
+</t>
         </is>
       </c>
     </row>
